--- a/학습자료/단답형/국어_복습_발음.xlsx
+++ b/학습자료/단답형/국어_복습_발음.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>구분</t>
         </is>
       </c>
@@ -468,11 +463,6 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -490,11 +480,6 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -512,11 +497,6 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -534,11 +514,6 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -556,11 +531,6 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -578,11 +548,6 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -600,11 +565,6 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -622,11 +582,6 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -644,11 +599,6 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -666,11 +616,6 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -688,11 +633,6 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -710,11 +650,6 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -732,11 +667,6 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -754,11 +684,6 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -776,11 +701,6 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -798,11 +718,6 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -820,11 +735,6 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -842,11 +752,6 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -864,11 +769,6 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -886,11 +786,6 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -908,11 +803,6 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -930,11 +820,6 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -952,11 +837,6 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -974,11 +854,6 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -996,11 +871,6 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -1018,11 +888,6 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -1040,11 +905,6 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -1062,11 +922,6 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -1084,11 +939,6 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -1106,11 +956,6 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -1128,11 +973,6 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -1150,11 +990,6 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -1171,11 +1006,6 @@
         </is>
       </c>
       <c r="C34" t="inlineStr">
-        <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
         <is>
           <t>발음</t>
         </is>

--- a/학습자료/단답형/국어_복습_발음.xlsx
+++ b/학습자료/단답형/국어_복습_발음.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>의견란</t>
+          <t>의견란 (발음)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,7 +476,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>임진란</t>
+          <t>임진란 (발음)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,7 +494,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>생산량</t>
+          <t>생산량 (발음)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -512,7 +512,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>결단력</t>
+          <t>결단력 (발음)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -530,7 +530,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>공권력</t>
+          <t>공권력 (발음)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -548,7 +548,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>동원령</t>
+          <t>동원령 (발음)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -566,7 +566,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>상견례</t>
+          <t>상견례 (발음)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -584,7 +584,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>횡단로</t>
+          <t>횡단로 (발음)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -602,7 +602,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>이원론</t>
+          <t>이원론 (발음)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>입원료</t>
+          <t>입원료 (발음)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>구근류</t>
+          <t>구근류 (발음)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -656,7 +656,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>신문로</t>
+          <t>신문로 (발음)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -669,16 +669,12 @@
           <t>발음</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>파생어</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>남대문로</t>
+          <t>남대문로 (발음)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -691,16 +687,12 @@
           <t>발음</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>파생어</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>추진력</t>
+          <t>추진력 (발음)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -718,7 +710,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>장맛비</t>
+          <t>장맛비 (발음)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -736,7 +728,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>등불</t>
+          <t>등불 (발음)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -754,7 +746,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>콧날</t>
+          <t>콧날 (발음)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -772,7 +764,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예삿일</t>
+          <t>예삿일 (발음)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -790,7 +782,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>집일</t>
+          <t>집일 (발음)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -808,7 +800,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>인사말</t>
+          <t>인사말 (발음)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -826,7 +818,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>머리말</t>
+          <t>머리말 (발음)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -844,7 +836,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>꼬리말</t>
+          <t>꼬리말 (발음)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -862,7 +854,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>고무줄</t>
+          <t>고무줄 (발음)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -880,7 +872,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>동아줄</t>
+          <t>동아줄 (발음)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -898,7 +890,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>회수(回收)</t>
+          <t>회수(回收) (발음)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -916,7 +908,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>콩밥</t>
+          <t>콩밥 (발음)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -934,7 +926,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>빨랫줄</t>
+          <t>빨랫줄 (발음)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -952,7 +944,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>횟수(回數)</t>
+          <t>횟수(回數) (발음)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -970,7 +962,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>아침밥</t>
+          <t>아침밥 (발음)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -988,7 +980,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>피어</t>
+          <t>피어 (발음)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1006,7 +998,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>되어</t>
+          <t>되어 (발음)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1024,7 +1016,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>이오</t>
+          <t>이오 (발음)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1042,7 +1034,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>아니오</t>
+          <t>아니오 (발음)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1060,7 +1052,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>마천루</t>
+          <t>마천루 (발음)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1078,7 +1070,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>영업용</t>
+          <t>영업용 (발음)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1096,7 +1088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>막일</t>
+          <t>막일 (발음)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1114,7 +1106,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>솜이불</t>
+          <t>솜이불 (발음)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1132,7 +1124,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>스물여섯</t>
+          <t>스물여섯 (발음)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
